--- a/PESQUISA.xlsx
+++ b/PESQUISA.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3363" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="849">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -2408,13 +2408,178 @@
   </si>
   <si>
     <t>Se SIM na pergunta anterior,  quais familiares?</t>
+  </si>
+  <si>
+    <t>Mariana Zanholo Ribeiro</t>
+  </si>
+  <si>
+    <t>20km até 25km</t>
+  </si>
+  <si>
+    <t>Etec Pirituba</t>
+  </si>
+  <si>
+    <t>Pai e primos</t>
+  </si>
+  <si>
+    <t>Sempre gostei da área</t>
+  </si>
+  <si>
+    <t>Lara Maluf Naman</t>
+  </si>
+  <si>
+    <t>Pai, tio</t>
+  </si>
+  <si>
+    <t>Melhor para o mercado, Vontade da familia</t>
+  </si>
+  <si>
+    <t>Momento Insper</t>
+  </si>
+  <si>
+    <t>Manuela Faria</t>
+  </si>
+  <si>
+    <t>São Paulo - Sp</t>
+  </si>
+  <si>
+    <t>Gabriela Moscarella Camillo</t>
+  </si>
+  <si>
+    <t>Sao paulo/ sao paulo</t>
+  </si>
+  <si>
+    <t>Colegio Palmares</t>
+  </si>
+  <si>
+    <t>prima de segundo grau</t>
+  </si>
+  <si>
+    <t>pai e mae</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Lie Yoshida</t>
+  </si>
+  <si>
+    <t>Mogi das Cruzes (SP)</t>
+  </si>
+  <si>
+    <t>Familia paterna inteira, mãe e irmã</t>
+  </si>
+  <si>
+    <t>tio</t>
+  </si>
+  <si>
+    <t>Gabriela Alves Madaras</t>
+  </si>
+  <si>
+    <t>Colegio Visconde de Porto Seguro</t>
+  </si>
+  <si>
+    <t>Minha mae e meu pai</t>
+  </si>
+  <si>
+    <t>Manuela Triantafyllidis de Oliveira</t>
+  </si>
+  <si>
+    <t>Colégio Bandeirantes</t>
+  </si>
+  <si>
+    <t>Meu pai e meu tio</t>
+  </si>
+  <si>
+    <t>Porque eu sempre gostei de economia</t>
+  </si>
+  <si>
+    <t>Meu tio</t>
+  </si>
+  <si>
+    <t>Ana Beatriz Andrade Barros</t>
+  </si>
+  <si>
+    <t>Melhor para o mercado, Achar que é uma área com grande potencial de impacto na sociedade</t>
+  </si>
+  <si>
+    <t>Infraestrutura, Reconhecimento no mercado devido aos outros cursos, Ensino diferenciado, Concentração de pessoas excelentes e oportunidades</t>
+  </si>
+  <si>
+    <t>Lorenza Mafia</t>
+  </si>
+  <si>
+    <t>Piracicaba, SP</t>
+  </si>
+  <si>
+    <t>Luiz de Queirós</t>
+  </si>
+  <si>
+    <t>Pai e mãe</t>
+  </si>
+  <si>
+    <t>as matérias do curso me agradam</t>
+  </si>
+  <si>
+    <t>qualidade do ensino</t>
+  </si>
+  <si>
+    <t>Sophia Levy Martini</t>
+  </si>
+  <si>
+    <t>Valinhos, São Paulo</t>
+  </si>
+  <si>
+    <t>Isabela Kothe assunção</t>
+  </si>
+  <si>
+    <t>Tocantins</t>
+  </si>
+  <si>
+    <t>Olimpo</t>
+  </si>
+  <si>
+    <t>Pai, mãe, tios e madrinha</t>
+  </si>
+  <si>
+    <t>Meu primo</t>
+  </si>
+  <si>
+    <t>Isadora Ishii Yonamine</t>
+  </si>
+  <si>
+    <t>Campo Grande/ MS</t>
+  </si>
+  <si>
+    <t>Colégio Bionatus</t>
+  </si>
+  <si>
+    <t>Estava indecisa sobre o que estudar, Melhor para o mercado, Vontade da familia</t>
+  </si>
+  <si>
+    <t>Mariana Rocha Nery</t>
+  </si>
+  <si>
+    <t>Goiânia/Goiás</t>
+  </si>
+  <si>
+    <t>Colégio WR</t>
+  </si>
+  <si>
+    <t>Estava indecisa sobre o que estudar, Melhor para o mercado</t>
+  </si>
+  <si>
+    <t>Algum familiar na engenharia?</t>
+  </si>
+  <si>
+    <t>Se "Sim" na pergunta anterior, quais familiares?</t>
+  </si>
+  <si>
+    <t>Tio, Irmão, Prima</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2430,6 +2595,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2439,7 +2611,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2447,14 +2619,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11921,11 +12117,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X36" sqref="X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11933,7 +12129,7 @@
     <col min="1" max="26" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11994,8 +12190,14 @@
       <c r="T1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U1" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -12056,8 +12258,14 @@
       <c r="T2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
@@ -12115,8 +12323,10 @@
       <c r="T3" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -12177,8 +12387,10 @@
       <c r="T4" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>114</v>
       </c>
@@ -12239,8 +12451,10 @@
       <c r="T5" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>126</v>
       </c>
@@ -12298,8 +12512,10 @@
       <c r="T6" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
@@ -12354,8 +12570,10 @@
       <c r="T7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>153</v>
       </c>
@@ -12416,8 +12634,10 @@
       <c r="T8" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>170</v>
       </c>
@@ -12472,8 +12692,10 @@
       <c r="T9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>180</v>
       </c>
@@ -12528,8 +12750,12 @@
       <c r="T10" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>196</v>
       </c>
@@ -12590,8 +12816,10 @@
       <c r="T11" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>206</v>
       </c>
@@ -12649,8 +12877,10 @@
       <c r="T12" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>219</v>
       </c>
@@ -12705,8 +12935,10 @@
       <c r="T13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>234</v>
       </c>
@@ -12764,8 +12996,10 @@
       <c r="T14" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -12823,8 +13057,10 @@
       <c r="T15" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -12885,8 +13121,12 @@
       <c r="T16" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>273</v>
       </c>
@@ -12947,8 +13187,14 @@
       <c r="T17" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>285</v>
       </c>
@@ -13009,8 +13255,10 @@
       <c r="T18" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>295</v>
       </c>
@@ -13068,8 +13316,10 @@
       <c r="T19" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>307</v>
       </c>
@@ -13130,8 +13380,10 @@
       <c r="T20" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>317</v>
       </c>
@@ -13192,8 +13444,10 @@
       <c r="T21" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>332</v>
       </c>
@@ -13248,8 +13502,10 @@
       <c r="T22" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>344</v>
       </c>
@@ -13307,8 +13563,10 @@
       <c r="T23" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>357</v>
       </c>
@@ -13366,6 +13624,924 @@
       <c r="T24" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+    </row>
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+    </row>
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V35" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+    </row>
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+    </row>
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PESQUISA.xlsx
+++ b/PESQUISA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16176" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="eng-insper" sheetId="4" r:id="rId1"/>
@@ -4693,7 +4693,7 @@
   </sheetPr>
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
@@ -10021,7 +10021,7 @@
   </sheetPr>
   <dimension ref="A1:S71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>

--- a/PESQUISA.xlsx
+++ b/PESQUISA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/Projeto_3_CD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beatriz\Documents\GitHub\Projeto_3_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16176" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="eng-insper" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="839">
   <si>
     <t>Qual seu nome completo?</t>
   </si>
@@ -2548,7 +2548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2947,7 +2947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2958,12 +2958,12 @@
       <selection pane="bottomLeft" activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="21.5" customWidth="1"/>
+    <col min="1" max="25" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>438</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>449</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>471</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>483</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>494</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>498</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>500</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>507</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>512</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>517</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>520</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>525</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>531</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>537</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>543</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>550</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>558</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>564</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>572</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>581</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>586</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>593</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>600</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>608</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>618</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>624</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>635</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>639</v>
       </c>
@@ -4705,23 +4705,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="21.5" customWidth="1"/>
+    <col min="1" max="26" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -4808,11 +4808,11 @@
       <c r="H2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>75</v>
@@ -4829,8 +4829,8 @@
       <c r="P2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
+      <c r="Q2" s="1">
+        <v>0</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>89</v>
@@ -4838,11 +4838,11 @@
       <c r="S2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
@@ -4867,14 +4867,14 @@
       <c r="H3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
+      <c r="I3" s="1">
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>39</v>
+      <c r="K3" s="1">
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>50</v>
@@ -4891,8 +4891,8 @@
       <c r="P3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
+      <c r="Q3" s="1">
+        <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>81</v>
@@ -4900,11 +4900,11 @@
       <c r="S3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -4929,14 +4929,14 @@
       <c r="H4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>39</v>
+      <c r="K4" s="1">
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>50</v>
@@ -4950,8 +4950,8 @@
       <c r="P4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>39</v>
+      <c r="Q4" s="1">
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>81</v>
@@ -4959,11 +4959,11 @@
       <c r="S4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>133</v>
       </c>
@@ -4988,11 +4988,11 @@
       <c r="H5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>43</v>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>75</v>
@@ -5009,8 +5009,8 @@
       <c r="P5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>43</v>
+      <c r="Q5" s="1">
+        <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>81</v>
@@ -5018,11 +5018,11 @@
       <c r="S5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>143</v>
       </c>
@@ -5047,11 +5047,11 @@
       <c r="H6" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>43</v>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>156</v>
@@ -5065,8 +5065,8 @@
       <c r="P6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>39</v>
+      <c r="Q6" s="1">
+        <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>81</v>
@@ -5074,11 +5074,11 @@
       <c r="S6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>165</v>
       </c>
@@ -5103,11 +5103,11 @@
       <c r="H7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>75</v>
@@ -5121,8 +5121,8 @@
       <c r="P7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>39</v>
+      <c r="Q7" s="1">
+        <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>81</v>
@@ -5130,11 +5130,11 @@
       <c r="S7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>180</v>
       </c>
@@ -5159,14 +5159,14 @@
       <c r="H8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>43</v>
+      <c r="K8" s="1">
+        <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>194</v>
@@ -5183,8 +5183,8 @@
       <c r="P8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>39</v>
+      <c r="Q8" s="1">
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>81</v>
@@ -5192,11 +5192,11 @@
       <c r="S8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>202</v>
       </c>
@@ -5221,11 +5221,11 @@
       <c r="H9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>43</v>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>75</v>
@@ -5242,8 +5242,8 @@
       <c r="P9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>39</v>
+      <c r="Q9" s="1">
+        <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>81</v>
@@ -5251,11 +5251,11 @@
       <c r="S9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>215</v>
       </c>
@@ -5280,14 +5280,14 @@
       <c r="H10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>43</v>
+      <c r="K10" s="1">
+        <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>50</v>
@@ -5304,8 +5304,8 @@
       <c r="P10" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>39</v>
+      <c r="Q10" s="1">
+        <v>0</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>81</v>
@@ -5313,11 +5313,11 @@
       <c r="S10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>225</v>
       </c>
@@ -5342,14 +5342,14 @@
       <c r="H11" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>43</v>
+      <c r="K11" s="1">
+        <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>211</v>
@@ -5363,8 +5363,8 @@
       <c r="P11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>39</v>
+      <c r="Q11" s="1">
+        <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>81</v>
@@ -5372,11 +5372,11 @@
       <c r="S11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>236</v>
       </c>
@@ -5401,11 +5401,11 @@
       <c r="H12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>75</v>
@@ -5422,8 +5422,8 @@
       <c r="P12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>39</v>
+      <c r="Q12" s="1">
+        <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>54</v>
@@ -5431,11 +5431,11 @@
       <c r="S12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>245</v>
       </c>
@@ -5460,14 +5460,14 @@
       <c r="H13" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>43</v>
+      <c r="I13" s="1">
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
+      <c r="K13" s="1">
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>211</v>
@@ -5484,8 +5484,8 @@
       <c r="P13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>39</v>
+      <c r="Q13" s="1">
+        <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>81</v>
@@ -5493,11 +5493,11 @@
       <c r="S13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>261</v>
       </c>
@@ -5522,11 +5522,11 @@
       <c r="H14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>39</v>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>267</v>
@@ -5543,8 +5543,8 @@
       <c r="P14" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>39</v>
+      <c r="Q14" s="1">
+        <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>89</v>
@@ -5552,11 +5552,11 @@
       <c r="S14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>273</v>
       </c>
@@ -5581,11 +5581,11 @@
       <c r="H15" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>43</v>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>50</v>
@@ -5602,8 +5602,8 @@
       <c r="P15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>39</v>
+      <c r="Q15" s="1">
+        <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>89</v>
@@ -5611,11 +5611,11 @@
       <c r="S15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>289</v>
       </c>
@@ -5640,11 +5640,11 @@
       <c r="H16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>43</v>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>75</v>
@@ -5661,8 +5661,8 @@
       <c r="P16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>39</v>
+      <c r="Q16" s="1">
+        <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>81</v>
@@ -5670,11 +5670,11 @@
       <c r="S16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>297</v>
       </c>
@@ -5699,14 +5699,14 @@
       <c r="H17" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>43</v>
+      <c r="I17" s="1">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>43</v>
+      <c r="K17" s="1">
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>50</v>
@@ -5720,8 +5720,8 @@
       <c r="P17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>39</v>
+      <c r="Q17" s="1">
+        <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>81</v>
@@ -5729,11 +5729,11 @@
       <c r="S17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>310</v>
       </c>
@@ -5758,11 +5758,11 @@
       <c r="H18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>43</v>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>211</v>
@@ -5779,8 +5779,8 @@
       <c r="P18" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>39</v>
+      <c r="Q18" s="1">
+        <v>0</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>81</v>
@@ -5788,11 +5788,11 @@
       <c r="S18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>323</v>
       </c>
@@ -5817,11 +5817,11 @@
       <c r="H19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>327</v>
@@ -5838,8 +5838,8 @@
       <c r="P19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>39</v>
+      <c r="Q19" s="1">
+        <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>81</v>
@@ -5847,11 +5847,11 @@
       <c r="S19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>335</v>
       </c>
@@ -5876,11 +5876,11 @@
       <c r="H20" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>43</v>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>75</v>
@@ -5894,8 +5894,8 @@
       <c r="P20" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>39</v>
+      <c r="Q20" s="1">
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>81</v>
@@ -5903,11 +5903,11 @@
       <c r="S20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>340</v>
       </c>
@@ -5932,14 +5932,14 @@
       <c r="H21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>43</v>
+      <c r="I21" s="1">
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>43</v>
+      <c r="K21" s="1">
+        <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>50</v>
@@ -5956,8 +5956,8 @@
       <c r="P21" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>39</v>
+      <c r="Q21" s="1">
+        <v>0</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>81</v>
@@ -5965,11 +5965,11 @@
       <c r="S21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>350</v>
       </c>
@@ -5994,14 +5994,14 @@
       <c r="H22" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>43</v>
+      <c r="I22" s="1">
+        <v>1</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>43</v>
+      <c r="K22" s="1">
+        <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>75</v>
@@ -6018,8 +6018,8 @@
       <c r="P22" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>39</v>
+      <c r="Q22" s="1">
+        <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>81</v>
@@ -6027,11 +6027,11 @@
       <c r="S22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>355</v>
       </c>
@@ -6056,14 +6056,14 @@
       <c r="H23" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>43</v>
+      <c r="I23" s="1">
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>43</v>
+      <c r="K23" s="1">
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>75</v>
@@ -6077,8 +6077,8 @@
       <c r="P23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>39</v>
+      <c r="Q23" s="1">
+        <v>0</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>81</v>
@@ -6086,11 +6086,11 @@
       <c r="S23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>361</v>
       </c>
@@ -6115,11 +6115,11 @@
       <c r="H24" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>39</v>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>75</v>
@@ -6136,8 +6136,8 @@
       <c r="P24" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>39</v>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>81</v>
@@ -6145,11 +6145,11 @@
       <c r="S24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>370</v>
       </c>
@@ -6174,11 +6174,11 @@
       <c r="H25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>39</v>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>327</v>
@@ -6192,8 +6192,8 @@
       <c r="P25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>39</v>
+      <c r="Q25" s="1">
+        <v>0</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>81</v>
@@ -6201,11 +6201,11 @@
       <c r="S25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>375</v>
       </c>
@@ -6230,14 +6230,14 @@
       <c r="H26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>43</v>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>43</v>
+      <c r="K26" s="1">
+        <v>1</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>50</v>
@@ -6254,8 +6254,8 @@
       <c r="P26" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>39</v>
+      <c r="Q26" s="1">
+        <v>0</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>81</v>
@@ -6263,11 +6263,11 @@
       <c r="S26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>385</v>
       </c>
@@ -6292,14 +6292,14 @@
       <c r="H27" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>43</v>
+      <c r="I27" s="1">
+        <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>43</v>
+      <c r="K27" s="1">
+        <v>1</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>211</v>
@@ -6316,8 +6316,8 @@
       <c r="P27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q27" s="1" t="s">
-        <v>39</v>
+      <c r="Q27" s="1">
+        <v>0</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>81</v>
@@ -6325,11 +6325,11 @@
       <c r="S27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>391</v>
       </c>
@@ -6354,11 +6354,11 @@
       <c r="H28" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>43</v>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>75</v>
@@ -6375,8 +6375,8 @@
       <c r="P28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q28" s="1" t="s">
-        <v>39</v>
+      <c r="Q28" s="1">
+        <v>0</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>81</v>
@@ -6384,11 +6384,11 @@
       <c r="S28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>402</v>
       </c>
@@ -6413,11 +6413,11 @@
       <c r="H29" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>43</v>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>327</v>
@@ -6434,8 +6434,8 @@
       <c r="P29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>39</v>
+      <c r="Q29" s="1">
+        <v>0</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>81</v>
@@ -6443,11 +6443,11 @@
       <c r="S29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>411</v>
       </c>
@@ -6472,11 +6472,11 @@
       <c r="H30" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>43</v>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>194</v>
@@ -6493,8 +6493,8 @@
       <c r="P30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q30" s="1" t="s">
-        <v>39</v>
+      <c r="Q30" s="1">
+        <v>0</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>81</v>
@@ -6502,11 +6502,11 @@
       <c r="S30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>421</v>
       </c>
@@ -6531,14 +6531,14 @@
       <c r="H31" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>43</v>
+      <c r="I31" s="1">
+        <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>43</v>
+      <c r="K31" s="1">
+        <v>1</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>194</v>
@@ -6552,8 +6552,8 @@
       <c r="P31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>39</v>
+      <c r="Q31" s="1">
+        <v>0</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>81</v>
@@ -6561,11 +6561,11 @@
       <c r="S31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>429</v>
       </c>
@@ -6590,11 +6590,11 @@
       <c r="H32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>43</v>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>75</v>
@@ -6608,8 +6608,8 @@
       <c r="P32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>39</v>
+      <c r="Q32" s="1">
+        <v>0</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>81</v>
@@ -6617,11 +6617,11 @@
       <c r="S32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>437</v>
       </c>
@@ -6646,11 +6646,11 @@
       <c r="H33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>43</v>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>75</v>
@@ -6664,8 +6664,8 @@
       <c r="P33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>43</v>
+      <c r="Q33" s="1">
+        <v>1</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>81</v>
@@ -6673,11 +6673,11 @@
       <c r="S33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>447</v>
       </c>
@@ -6702,14 +6702,14 @@
       <c r="H34" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>43</v>
+      <c r="I34" s="1">
+        <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>43</v>
+      <c r="K34" s="1">
+        <v>1</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>453</v>
@@ -6723,8 +6723,8 @@
       <c r="P34" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>39</v>
+      <c r="Q34" s="1">
+        <v>0</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>81</v>
@@ -6732,11 +6732,11 @@
       <c r="S34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>455</v>
       </c>
@@ -6761,11 +6761,11 @@
       <c r="H35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>43</v>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>75</v>
@@ -6779,8 +6779,8 @@
       <c r="P35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q35" s="1" t="s">
-        <v>39</v>
+      <c r="Q35" s="1">
+        <v>0</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>81</v>
@@ -6788,11 +6788,11 @@
       <c r="S35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>464</v>
       </c>
@@ -6817,11 +6817,11 @@
       <c r="H36" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>43</v>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>50</v>
@@ -6835,8 +6835,8 @@
       <c r="P36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>39</v>
+      <c r="Q36" s="1">
+        <v>0</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>81</v>
@@ -6844,11 +6844,11 @@
       <c r="S36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>474</v>
       </c>
@@ -6873,14 +6873,14 @@
       <c r="H37" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>43</v>
+      <c r="I37" s="1">
+        <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>43</v>
+      <c r="K37" s="1">
+        <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>211</v>
@@ -6894,8 +6894,8 @@
       <c r="P37" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>43</v>
+      <c r="Q37" s="1">
+        <v>1</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>81</v>
@@ -6903,11 +6903,11 @@
       <c r="S37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>486</v>
       </c>
@@ -6932,14 +6932,14 @@
       <c r="H38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>43</v>
+      <c r="I38" s="1">
+        <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>43</v>
+      <c r="K38" s="1">
+        <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>50</v>
@@ -6953,8 +6953,8 @@
       <c r="P38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>39</v>
+      <c r="Q38" s="1">
+        <v>0</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>81</v>
@@ -6962,11 +6962,11 @@
       <c r="S38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>495</v>
       </c>
@@ -6991,14 +6991,14 @@
       <c r="H39" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>43</v>
+      <c r="I39" s="1">
+        <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>43</v>
+      <c r="K39" s="1">
+        <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>75</v>
@@ -7012,8 +7012,8 @@
       <c r="P39" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>39</v>
+      <c r="Q39" s="1">
+        <v>0</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>81</v>
@@ -7021,11 +7021,11 @@
       <c r="S39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>499</v>
       </c>
@@ -7050,11 +7050,11 @@
       <c r="H40" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>43</v>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>75</v>
@@ -7068,8 +7068,8 @@
       <c r="P40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>43</v>
+      <c r="Q40" s="1">
+        <v>1</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>81</v>
@@ -7077,11 +7077,11 @@
       <c r="S40" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>504</v>
       </c>
@@ -7106,14 +7106,14 @@
       <c r="H41" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>43</v>
+      <c r="I41" s="1">
+        <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>39</v>
+      <c r="K41" s="1">
+        <v>0</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>75</v>
@@ -7127,8 +7127,8 @@
       <c r="P41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q41" s="1" t="s">
-        <v>39</v>
+      <c r="Q41" s="1">
+        <v>0</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>81</v>
@@ -7136,11 +7136,11 @@
       <c r="S41" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>510</v>
       </c>
@@ -7165,14 +7165,14 @@
       <c r="H42" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>43</v>
+      <c r="I42" s="1">
+        <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>43</v>
+      <c r="K42" s="1">
+        <v>1</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>50</v>
@@ -7186,8 +7186,8 @@
       <c r="P42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q42" s="1" t="s">
-        <v>39</v>
+      <c r="Q42" s="1">
+        <v>0</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>81</v>
@@ -7195,11 +7195,11 @@
       <c r="S42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>516</v>
       </c>
@@ -7224,11 +7224,11 @@
       <c r="H43" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>43</v>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>75</v>
@@ -7242,8 +7242,8 @@
       <c r="P43" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q43" s="1" t="s">
-        <v>39</v>
+      <c r="Q43" s="1">
+        <v>0</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>54</v>
@@ -7251,11 +7251,11 @@
       <c r="S43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>519</v>
       </c>
@@ -7280,14 +7280,14 @@
       <c r="H44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>43</v>
+      <c r="I44" s="1">
+        <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>39</v>
+      <c r="K44" s="1">
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>523</v>
@@ -7301,8 +7301,8 @@
       <c r="P44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q44" s="1" t="s">
-        <v>39</v>
+      <c r="Q44" s="1">
+        <v>0</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>81</v>
@@ -7310,11 +7310,11 @@
       <c r="S44" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>526</v>
       </c>
@@ -7339,11 +7339,11 @@
       <c r="H45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>43</v>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>211</v>
@@ -7357,8 +7357,8 @@
       <c r="P45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q45" s="1" t="s">
-        <v>39</v>
+      <c r="Q45" s="1">
+        <v>0</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>81</v>
@@ -7366,11 +7366,11 @@
       <c r="S45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>532</v>
       </c>
@@ -7395,14 +7395,14 @@
       <c r="H46" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>43</v>
+      <c r="I46" s="1">
+        <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>43</v>
+      <c r="K46" s="1">
+        <v>1</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>211</v>
@@ -7419,8 +7419,8 @@
       <c r="P46" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="Q46" s="1" t="s">
-        <v>39</v>
+      <c r="Q46" s="1">
+        <v>0</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>81</v>
@@ -7428,11 +7428,11 @@
       <c r="S46" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>538</v>
       </c>
@@ -7457,11 +7457,11 @@
       <c r="H47" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>43</v>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>75</v>
@@ -7475,8 +7475,8 @@
       <c r="P47" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q47" s="1" t="s">
-        <v>43</v>
+      <c r="Q47" s="1">
+        <v>1</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>81</v>
@@ -7484,11 +7484,11 @@
       <c r="S47" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>542</v>
       </c>
@@ -7513,14 +7513,14 @@
       <c r="H48" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>43</v>
+      <c r="I48" s="1">
+        <v>1</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>43</v>
+      <c r="K48" s="1">
+        <v>1</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>211</v>
@@ -7537,8 +7537,8 @@
       <c r="P48" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q48" s="1" t="s">
-        <v>39</v>
+      <c r="Q48" s="1">
+        <v>0</v>
       </c>
       <c r="R48" s="1" t="s">
         <v>81</v>
@@ -7546,11 +7546,11 @@
       <c r="S48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>549</v>
       </c>
@@ -7575,14 +7575,14 @@
       <c r="H49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>43</v>
+      <c r="I49" s="1">
+        <v>1</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>43</v>
+      <c r="K49" s="1">
+        <v>1</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>553</v>
@@ -7596,8 +7596,8 @@
       <c r="P49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q49" s="1" t="s">
-        <v>39</v>
+      <c r="Q49" s="1">
+        <v>0</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>81</v>
@@ -7605,11 +7605,11 @@
       <c r="S49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>555</v>
       </c>
@@ -7634,11 +7634,11 @@
       <c r="H50" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>43</v>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>50</v>
@@ -7652,8 +7652,8 @@
       <c r="P50" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="Q50" s="1" t="s">
-        <v>39</v>
+      <c r="Q50" s="1">
+        <v>0</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>81</v>
@@ -7661,11 +7661,11 @@
       <c r="S50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>560</v>
       </c>
@@ -7690,14 +7690,14 @@
       <c r="H51" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>43</v>
+      <c r="I51" s="1">
+        <v>1</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>43</v>
+      <c r="K51" s="1">
+        <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>75</v>
@@ -7711,8 +7711,8 @@
       <c r="P51" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Q51" s="1" t="s">
-        <v>39</v>
+      <c r="Q51" s="1">
+        <v>0</v>
       </c>
       <c r="R51" s="1" t="s">
         <v>81</v>
@@ -7720,11 +7720,11 @@
       <c r="S51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>567</v>
       </c>
@@ -7749,11 +7749,11 @@
       <c r="H52" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>43</v>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>75</v>
@@ -7770,8 +7770,8 @@
       <c r="P52" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q52" s="1" t="s">
-        <v>39</v>
+      <c r="Q52" s="1">
+        <v>0</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>81</v>
@@ -7779,11 +7779,11 @@
       <c r="S52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>573</v>
       </c>
@@ -7808,11 +7808,11 @@
       <c r="H53" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>43</v>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>577</v>
@@ -7826,8 +7826,8 @@
       <c r="P53" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="Q53" s="1" t="s">
-        <v>39</v>
+      <c r="Q53" s="1">
+        <v>0</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>81</v>
@@ -7835,11 +7835,11 @@
       <c r="S53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>579</v>
       </c>
@@ -7864,11 +7864,11 @@
       <c r="H54" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>39</v>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>327</v>
@@ -7882,8 +7882,8 @@
       <c r="P54" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q54" s="1" t="s">
-        <v>43</v>
+      <c r="Q54" s="1">
+        <v>1</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>89</v>
@@ -7891,11 +7891,11 @@
       <c r="S54" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>582</v>
       </c>
@@ -7920,11 +7920,11 @@
       <c r="H55" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>43</v>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>75</v>
@@ -7938,8 +7938,8 @@
       <c r="P55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q55" s="1" t="s">
-        <v>39</v>
+      <c r="Q55" s="1">
+        <v>0</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>81</v>
@@ -7947,11 +7947,11 @@
       <c r="S55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>587</v>
       </c>
@@ -7976,11 +7976,11 @@
       <c r="H56" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>43</v>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>211</v>
@@ -7994,8 +7994,8 @@
       <c r="P56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q56" s="1" t="s">
-        <v>39</v>
+      <c r="Q56" s="1">
+        <v>0</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>81</v>
@@ -8003,11 +8003,11 @@
       <c r="S56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>594</v>
       </c>
@@ -8032,11 +8032,11 @@
       <c r="H57" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>43</v>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>211</v>
@@ -8050,8 +8050,8 @@
       <c r="P57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q57" s="1" t="s">
-        <v>39</v>
+      <c r="Q57" s="1">
+        <v>0</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>81</v>
@@ -8059,11 +8059,11 @@
       <c r="S57" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>599</v>
       </c>
@@ -8088,11 +8088,11 @@
       <c r="H58" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>43</v>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>604</v>
@@ -8106,8 +8106,8 @@
       <c r="P58" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q58" s="1" t="s">
-        <v>39</v>
+      <c r="Q58" s="1">
+        <v>0</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>81</v>
@@ -8115,11 +8115,11 @@
       <c r="S58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>607</v>
       </c>
@@ -8144,11 +8144,11 @@
       <c r="H59" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>43</v>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>611</v>
@@ -8165,8 +8165,8 @@
       <c r="P59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>39</v>
+      <c r="Q59" s="1">
+        <v>0</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>81</v>
@@ -8174,11 +8174,11 @@
       <c r="S59" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>616</v>
       </c>
@@ -8203,11 +8203,11 @@
       <c r="H60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>43</v>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>620</v>
@@ -8224,8 +8224,8 @@
       <c r="P60" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="Q60" s="1" t="s">
-        <v>43</v>
+      <c r="Q60" s="1">
+        <v>1</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>81</v>
@@ -8233,11 +8233,11 @@
       <c r="S60" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>622</v>
       </c>
@@ -8262,11 +8262,11 @@
       <c r="H61" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>43</v>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>75</v>
@@ -8280,8 +8280,8 @@
       <c r="P61" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>39</v>
+      <c r="Q61" s="1">
+        <v>0</v>
       </c>
       <c r="R61" s="1" t="s">
         <v>81</v>
@@ -8289,11 +8289,11 @@
       <c r="S61" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>625</v>
       </c>
@@ -8318,11 +8318,11 @@
       <c r="H62" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>43</v>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>629</v>
@@ -8336,8 +8336,8 @@
       <c r="P62" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q62" s="1" t="s">
-        <v>39</v>
+      <c r="Q62" s="1">
+        <v>0</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>81</v>
@@ -8345,11 +8345,11 @@
       <c r="S62" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>631</v>
       </c>
@@ -8374,14 +8374,14 @@
       <c r="H63" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>43</v>
+      <c r="I63" s="1">
+        <v>1</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>43</v>
+      <c r="K63" s="1">
+        <v>1</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>156</v>
@@ -8395,8 +8395,8 @@
       <c r="P63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q63" s="1" t="s">
-        <v>43</v>
+      <c r="Q63" s="1">
+        <v>1</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>81</v>
@@ -8404,11 +8404,11 @@
       <c r="S63" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>636</v>
       </c>
@@ -8433,11 +8433,11 @@
       <c r="H64" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>43</v>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>134</v>
@@ -8451,8 +8451,8 @@
       <c r="P64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q64" s="1" t="s">
-        <v>39</v>
+      <c r="Q64" s="1">
+        <v>0</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>81</v>
@@ -8460,11 +8460,11 @@
       <c r="S64" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>640</v>
       </c>
@@ -8489,14 +8489,14 @@
       <c r="H65" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>43</v>
+      <c r="I65" s="1">
+        <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>39</v>
+      <c r="K65" s="1">
+        <v>0</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>645</v>
@@ -8510,8 +8510,8 @@
       <c r="P65" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q65" s="1" t="s">
-        <v>43</v>
+      <c r="Q65" s="1">
+        <v>1</v>
       </c>
       <c r="R65" s="1" t="s">
         <v>81</v>
@@ -8519,11 +8519,11 @@
       <c r="S65" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>646</v>
       </c>
@@ -8548,14 +8548,14 @@
       <c r="H66" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>43</v>
+      <c r="I66" s="1">
+        <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="K66" s="1" t="s">
-        <v>43</v>
+      <c r="K66" s="1">
+        <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>75</v>
@@ -8566,8 +8566,8 @@
       <c r="P66" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="Q66" s="1" t="s">
-        <v>43</v>
+      <c r="Q66" s="1">
+        <v>1</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>81</v>
@@ -8575,11 +8575,11 @@
       <c r="S66" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>650</v>
       </c>
@@ -8604,11 +8604,11 @@
       <c r="H67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>43</v>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>652</v>
@@ -8622,8 +8622,8 @@
       <c r="P67" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="Q67" s="1" t="s">
-        <v>39</v>
+      <c r="Q67" s="1">
+        <v>0</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>81</v>
@@ -8631,11 +8631,11 @@
       <c r="S67" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>654</v>
       </c>
@@ -8660,14 +8660,14 @@
       <c r="H68" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>43</v>
+      <c r="I68" s="1">
+        <v>1</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>43</v>
+      <c r="K68" s="1">
+        <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>50</v>
@@ -8681,8 +8681,8 @@
       <c r="P68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q68" s="1" t="s">
-        <v>43</v>
+      <c r="Q68" s="1">
+        <v>1</v>
       </c>
       <c r="R68" s="1" t="s">
         <v>89</v>
@@ -8690,11 +8690,11 @@
       <c r="S68" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>657</v>
       </c>
@@ -8719,11 +8719,11 @@
       <c r="H69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>43</v>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>194</v>
@@ -8740,8 +8740,8 @@
       <c r="P69" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q69" s="1" t="s">
-        <v>39</v>
+      <c r="Q69" s="1">
+        <v>0</v>
       </c>
       <c r="R69" s="1" t="s">
         <v>81</v>
@@ -8749,11 +8749,11 @@
       <c r="S69" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T69" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>659</v>
       </c>
@@ -8778,11 +8778,11 @@
       <c r="H70" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>43</v>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>661</v>
@@ -8796,8 +8796,8 @@
       <c r="P70" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q70" s="1" t="s">
-        <v>43</v>
+      <c r="Q70" s="1">
+        <v>1</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>81</v>
@@ -8805,11 +8805,11 @@
       <c r="S70" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T70" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>662</v>
       </c>
@@ -8834,11 +8834,11 @@
       <c r="H71" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>43</v>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>663</v>
@@ -8855,8 +8855,8 @@
       <c r="P71" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q71" s="1" t="s">
-        <v>39</v>
+      <c r="Q71" s="1">
+        <v>0</v>
       </c>
       <c r="R71" s="1" t="s">
         <v>81</v>
@@ -8864,11 +8864,11 @@
       <c r="S71" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T71" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>664</v>
       </c>
@@ -8893,11 +8893,11 @@
       <c r="H72" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>43</v>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>75</v>
@@ -8911,8 +8911,8 @@
       <c r="P72" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="Q72" s="1" t="s">
-        <v>39</v>
+      <c r="Q72" s="1">
+        <v>0</v>
       </c>
       <c r="R72" s="1" t="s">
         <v>54</v>
@@ -8920,11 +8920,11 @@
       <c r="S72" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T72" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>668</v>
       </c>
@@ -8949,14 +8949,14 @@
       <c r="H73" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>43</v>
+      <c r="I73" s="1">
+        <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>43</v>
+      <c r="K73" s="1">
+        <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>50</v>
@@ -8973,8 +8973,8 @@
       <c r="P73" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="Q73" s="1" t="s">
-        <v>43</v>
+      <c r="Q73" s="1">
+        <v>1</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>81</v>
@@ -8982,11 +8982,11 @@
       <c r="S73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T73" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>672</v>
       </c>
@@ -9011,11 +9011,11 @@
       <c r="H74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>39</v>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>75</v>
@@ -9029,8 +9029,8 @@
       <c r="P74" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>39</v>
+      <c r="Q74" s="1">
+        <v>0</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>81</v>
@@ -9038,11 +9038,11 @@
       <c r="S74" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T74" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>673</v>
       </c>
@@ -9067,14 +9067,14 @@
       <c r="H75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>43</v>
+      <c r="I75" s="1">
+        <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>43</v>
+      <c r="K75" s="1">
+        <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>194</v>
@@ -9088,8 +9088,8 @@
       <c r="P75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q75" s="1" t="s">
-        <v>39</v>
+      <c r="Q75" s="1">
+        <v>0</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>81</v>
@@ -9097,11 +9097,11 @@
       <c r="S75" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T75" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>675</v>
       </c>
@@ -9126,11 +9126,11 @@
       <c r="H76" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>43</v>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>211</v>
@@ -9144,8 +9144,8 @@
       <c r="P76" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q76" s="1" t="s">
-        <v>39</v>
+      <c r="Q76" s="1">
+        <v>0</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>81</v>
@@ -9153,11 +9153,11 @@
       <c r="S76" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T76" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>678</v>
       </c>
@@ -9182,14 +9182,14 @@
       <c r="H77" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>43</v>
+      <c r="I77" s="1">
+        <v>1</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>43</v>
+      <c r="K77" s="1">
+        <v>1</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>211</v>
@@ -9203,8 +9203,8 @@
       <c r="P77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q77" s="1" t="s">
-        <v>39</v>
+      <c r="Q77" s="1">
+        <v>0</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>81</v>
@@ -9212,11 +9212,11 @@
       <c r="S77" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T77" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>679</v>
       </c>
@@ -9241,11 +9241,11 @@
       <c r="H78" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>43</v>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>75</v>
@@ -9259,8 +9259,8 @@
       <c r="P78" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q78" s="1" t="s">
-        <v>43</v>
+      <c r="Q78" s="1">
+        <v>1</v>
       </c>
       <c r="R78" s="1" t="s">
         <v>81</v>
@@ -9268,11 +9268,11 @@
       <c r="S78" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T78" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>682</v>
       </c>
@@ -9297,11 +9297,11 @@
       <c r="H79" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>43</v>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>211</v>
@@ -9315,8 +9315,8 @@
       <c r="P79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q79" s="1" t="s">
-        <v>39</v>
+      <c r="Q79" s="1">
+        <v>0</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>81</v>
@@ -9324,11 +9324,11 @@
       <c r="S79" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T79" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>685</v>
       </c>
@@ -9353,11 +9353,11 @@
       <c r="H80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>43</v>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>211</v>
@@ -9374,8 +9374,8 @@
       <c r="P80" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q80" s="1" t="s">
-        <v>39</v>
+      <c r="Q80" s="1">
+        <v>0</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>81</v>
@@ -9383,11 +9383,11 @@
       <c r="S80" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T80" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>688</v>
       </c>
@@ -9412,11 +9412,11 @@
       <c r="H81" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>43</v>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>689</v>
@@ -9430,8 +9430,8 @@
       <c r="P81" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q81" s="1" t="s">
-        <v>39</v>
+      <c r="Q81" s="1">
+        <v>0</v>
       </c>
       <c r="R81" s="1" t="s">
         <v>81</v>
@@ -9439,11 +9439,11 @@
       <c r="S81" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T81" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>690</v>
       </c>
@@ -9468,11 +9468,11 @@
       <c r="H82" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>39</v>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>75</v>
@@ -9489,8 +9489,8 @@
       <c r="P82" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q82" s="1" t="s">
-        <v>39</v>
+      <c r="Q82" s="1">
+        <v>0</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>81</v>
@@ -9498,11 +9498,11 @@
       <c r="S82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T82" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>694</v>
       </c>
@@ -9527,11 +9527,11 @@
       <c r="H83" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>43</v>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>50</v>
@@ -9545,8 +9545,8 @@
       <c r="P83" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q83" s="1" t="s">
-        <v>39</v>
+      <c r="Q83" s="1">
+        <v>0</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>89</v>
@@ -9554,11 +9554,11 @@
       <c r="S83" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T83" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>696</v>
       </c>
@@ -9583,14 +9583,14 @@
       <c r="H84" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>43</v>
+      <c r="I84" s="1">
+        <v>1</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>43</v>
+      <c r="K84" s="1">
+        <v>1</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>327</v>
@@ -9607,8 +9607,8 @@
       <c r="P84" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q84" s="1" t="s">
-        <v>43</v>
+      <c r="Q84" s="1">
+        <v>1</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>81</v>
@@ -9616,11 +9616,11 @@
       <c r="S84" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T84" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>698</v>
       </c>
@@ -9645,14 +9645,14 @@
       <c r="H85" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>43</v>
+      <c r="I85" s="1">
+        <v>1</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>39</v>
+      <c r="K85" s="1">
+        <v>0</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>75</v>
@@ -9669,8 +9669,8 @@
       <c r="P85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q85" s="1" t="s">
-        <v>39</v>
+      <c r="Q85" s="1">
+        <v>0</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>89</v>
@@ -9678,11 +9678,11 @@
       <c r="S85" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T85" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>701</v>
       </c>
@@ -9707,11 +9707,11 @@
       <c r="H86" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K86" s="1" t="s">
-        <v>43</v>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>134</v>
@@ -9728,8 +9728,8 @@
       <c r="P86" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q86" s="1" t="s">
-        <v>39</v>
+      <c r="Q86" s="1">
+        <v>0</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>81</v>
@@ -9737,11 +9737,11 @@
       <c r="S86" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T86" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>678</v>
       </c>
@@ -9766,14 +9766,14 @@
       <c r="H87" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>43</v>
+      <c r="I87" s="1">
+        <v>1</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>43</v>
+      <c r="K87" s="1">
+        <v>1</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>211</v>
@@ -9787,8 +9787,8 @@
       <c r="P87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q87" s="1" t="s">
-        <v>39</v>
+      <c r="Q87" s="1">
+        <v>0</v>
       </c>
       <c r="R87" s="1" t="s">
         <v>81</v>
@@ -9796,11 +9796,11 @@
       <c r="S87" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>703</v>
       </c>
@@ -9825,11 +9825,11 @@
       <c r="H88" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>43</v>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>75</v>
@@ -9843,8 +9843,8 @@
       <c r="P88" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q88" s="1" t="s">
-        <v>39</v>
+      <c r="Q88" s="1">
+        <v>0</v>
       </c>
       <c r="R88" s="1" t="s">
         <v>81</v>
@@ -9852,11 +9852,11 @@
       <c r="S88" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T88" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>706</v>
       </c>
@@ -9881,11 +9881,11 @@
       <c r="H89" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K89" s="1" t="s">
-        <v>43</v>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>50</v>
@@ -9902,8 +9902,8 @@
       <c r="P89" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Q89" s="1" t="s">
-        <v>39</v>
+      <c r="Q89" s="1">
+        <v>0</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>81</v>
@@ -9911,11 +9911,11 @@
       <c r="S89" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T89" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>709</v>
       </c>
@@ -9940,11 +9940,11 @@
       <c r="H90" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>43</v>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>75</v>
@@ -9958,8 +9958,8 @@
       <c r="P90" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q90" s="1" t="s">
-        <v>39</v>
+      <c r="Q90" s="1">
+        <v>0</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>81</v>
@@ -9967,11 +9967,11 @@
       <c r="S90" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T90" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" ht="13" x14ac:dyDescent="0.15">
+      <c r="T90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>712</v>
       </c>
@@ -9996,11 +9996,11 @@
       <c r="H91" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>39</v>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>156</v>
@@ -10014,8 +10014,8 @@
       <c r="P91" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q91" s="1" t="s">
-        <v>39</v>
+      <c r="Q91" s="1">
+        <v>0</v>
       </c>
       <c r="R91" s="1" t="s">
         <v>81</v>
@@ -10023,17 +10023,18 @@
       <c r="S91" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T91" s="1" t="s">
-        <v>39</v>
+      <c r="T91" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T91"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -10044,12 +10045,12 @@
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="21.5" customWidth="1"/>
+    <col min="1" max="25" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -10130,7 +10131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -10141,7 +10142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -10200,7 +10201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -10253,7 +10254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
@@ -10275,7 +10276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>98</v>
       </c>
@@ -10286,7 +10287,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
@@ -10297,7 +10298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>103</v>
       </c>
@@ -10308,7 +10309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>107</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>111</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>115</v>
       </c>
@@ -10341,7 +10342,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>119</v>
       </c>
@@ -10400,7 +10401,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>138</v>
       </c>
@@ -10411,7 +10412,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -10422,7 +10423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>142</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>144</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>150</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
@@ -10466,7 +10467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>162</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>164</v>
       </c>
@@ -10488,7 +10489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>167</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>171</v>
       </c>
@@ -10558,7 +10559,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>187</v>
       </c>
@@ -10569,7 +10570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>190</v>
       </c>
@@ -10580,7 +10581,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>192</v>
       </c>
@@ -10591,7 +10592,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>193</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>198</v>
       </c>
@@ -10613,7 +10614,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>200</v>
       </c>
@@ -10624,7 +10625,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>203</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>221</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>224</v>
       </c>
@@ -10705,7 +10706,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>228</v>
       </c>
@@ -10716,7 +10717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>233</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>235</v>
       </c>
@@ -10738,7 +10739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>240</v>
       </c>
@@ -10749,7 +10750,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -10760,7 +10761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>246</v>
       </c>
@@ -10819,7 +10820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>263</v>
       </c>
@@ -10830,7 +10831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>268</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>270</v>
       </c>
@@ -10852,7 +10853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>275</v>
       </c>
@@ -10863,7 +10864,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>278</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>290</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>294</v>
       </c>
@@ -10992,7 +10993,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>308</v>
       </c>
@@ -11003,7 +11004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>313</v>
       </c>
@@ -11062,7 +11063,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>324</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>270</v>
       </c>
@@ -11132,7 +11133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>347</v>
       </c>
@@ -11143,7 +11144,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>349</v>
       </c>
@@ -11199,7 +11200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>356</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>364</v>
       </c>
@@ -11269,7 +11270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>368</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>369</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>374</v>
       </c>
@@ -11398,7 +11399,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>381</v>
       </c>
@@ -11457,7 +11458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>389</v>
       </c>
@@ -11513,7 +11514,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>396</v>
       </c>
@@ -11569,7 +11570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>401</v>
       </c>
@@ -11622,7 +11623,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>410</v>
       </c>
@@ -11681,7 +11682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>419</v>
       </c>
@@ -11734,7 +11735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>428</v>
       </c>
@@ -11793,7 +11794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>442</v>
       </c>
@@ -11852,7 +11853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>448</v>
       </c>
@@ -11908,7 +11909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>457</v>
       </c>
@@ -11964,7 +11965,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>466</v>
       </c>
@@ -11975,7 +11976,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>469</v>
       </c>
@@ -12034,7 +12035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>482</v>
       </c>
@@ -12096,7 +12097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12107,12 +12108,12 @@
       <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="21.5" customWidth="1"/>
+    <col min="1" max="26" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -12309,7 +12310,7 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -12373,7 +12374,7 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -12437,7 +12438,7 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -12498,7 +12499,7 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -12556,7 +12557,7 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>147</v>
       </c>
@@ -12620,7 +12621,7 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -12678,7 +12679,7 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
@@ -12738,7 +12739,7 @@
       </c>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>186</v>
       </c>
@@ -12802,7 +12803,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>195</v>
       </c>
@@ -12863,7 +12864,7 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>208</v>
       </c>
@@ -12921,7 +12922,7 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>223</v>
       </c>
@@ -12982,7 +12983,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>234</v>
       </c>
@@ -13043,7 +13044,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>244</v>
       </c>
@@ -13109,7 +13110,7 @@
       </c>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>260</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>271</v>
       </c>
@@ -13241,7 +13242,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>281</v>
       </c>
@@ -13302,7 +13303,7 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>292</v>
       </c>
@@ -13366,7 +13367,7 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>302</v>
       </c>
@@ -13430,7 +13431,7 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>316</v>
       </c>
@@ -13488,7 +13489,7 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>326</v>
       </c>
@@ -13549,7 +13550,7 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>339</v>
       </c>
@@ -13610,7 +13611,7 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>726</v>
       </c>
@@ -13680,7 +13681,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>731</v>
       </c>
@@ -13750,7 +13751,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>735</v>
       </c>
@@ -13820,7 +13821,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>736</v>
       </c>
@@ -13892,7 +13893,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>740</v>
       </c>
@@ -13964,7 +13965,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>743</v>
       </c>
@@ -14034,7 +14035,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>746</v>
       </c>
@@ -14106,7 +14107,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>751</v>
       </c>
@@ -14174,7 +14175,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>754</v>
       </c>
@@ -14244,7 +14245,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>759</v>
       </c>
@@ -14316,7 +14317,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>760</v>
       </c>
@@ -14386,7 +14387,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>764</v>
       </c>
@@ -14456,7 +14457,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>767</v>
       </c>
@@ -14526,7 +14527,7 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E38" s="2"/>
     </row>
   </sheetData>
@@ -14536,28 +14537,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="8" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="8" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>832</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>831</v>
       </c>
@@ -14591,7 +14592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>833</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>834</v>
       </c>

--- a/PESQUISA.xlsx
+++ b/PESQUISA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16176" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="eng-insper" sheetId="4" r:id="rId1"/>
@@ -19,14 +19,16 @@
     <sheet name="anos" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">admecono!$A$1:$V$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">engenharia!$A$1:$T$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eng-insper'!$A$1:$S$31</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="839">
   <si>
     <t>Qual seu nome completo?</t>
   </si>
@@ -2951,11 +2953,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F16:F17"/>
+      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3044,17 +3046,17 @@
       <c r="G2" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>43</v>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
+      <c r="L2" s="1">
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>96</v>
@@ -3062,8 +3064,8 @@
       <c r="O2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>39</v>
+      <c r="P2" s="1">
+        <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>54</v>
@@ -3071,8 +3073,8 @@
       <c r="R2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>39</v>
+      <c r="S2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,20 +3099,20 @@
       <c r="G3" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>43</v>
+      <c r="H3" s="1">
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>39</v>
+      <c r="J3" s="1">
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>43</v>
+      <c r="L3" s="1">
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>79</v>
@@ -3118,8 +3120,8 @@
       <c r="O3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>39</v>
+      <c r="P3" s="1">
+        <v>0</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>81</v>
@@ -3127,8 +3129,8 @@
       <c r="R3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>43</v>
+      <c r="S3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,20 +3155,20 @@
       <c r="G4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>43</v>
+      <c r="J4" s="1">
+        <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
+      <c r="L4" s="1">
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>462</v>
@@ -3177,8 +3179,8 @@
       <c r="O4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>39</v>
+      <c r="P4" s="1">
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>81</v>
@@ -3186,8 +3188,8 @@
       <c r="R4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>43</v>
+      <c r="S4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,20 +3214,20 @@
       <c r="G5" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>43</v>
+      <c r="J5" s="1">
+        <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>43</v>
+      <c r="L5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>79</v>
@@ -3233,8 +3235,8 @@
       <c r="O5" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>39</v>
+      <c r="P5" s="1">
+        <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>81</v>
@@ -3242,8 +3244,8 @@
       <c r="R5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>39</v>
+      <c r="S5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,20 +3270,20 @@
       <c r="G6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
+      <c r="J6" s="1">
+        <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>43</v>
+      <c r="L6" s="1">
+        <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>79</v>
@@ -3289,8 +3291,8 @@
       <c r="O6" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>39</v>
+      <c r="P6" s="1">
+        <v>0</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>81</v>
@@ -3298,8 +3300,8 @@
       <c r="R6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>43</v>
+      <c r="S6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3324,20 +3326,20 @@
       <c r="G7" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>43</v>
+      <c r="J7" s="1">
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>39</v>
+      <c r="L7" s="1">
+        <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>490</v>
@@ -3348,8 +3350,8 @@
       <c r="O7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>39</v>
+      <c r="P7" s="1">
+        <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>89</v>
@@ -3357,8 +3359,8 @@
       <c r="R7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>43</v>
+      <c r="S7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,20 +3385,20 @@
       <c r="G8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>43</v>
+      <c r="H8" s="1">
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>39</v>
+      <c r="J8" s="1">
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>39</v>
+      <c r="L8" s="1">
+        <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>322</v>
@@ -3407,8 +3409,8 @@
       <c r="O8" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>43</v>
+      <c r="P8" s="1">
+        <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>81</v>
@@ -3416,8 +3418,8 @@
       <c r="R8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>43</v>
+      <c r="S8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,17 +3444,17 @@
       <c r="G9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>39</v>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>43</v>
+      <c r="L9" s="1">
+        <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>159</v>
@@ -3460,8 +3462,8 @@
       <c r="O9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>39</v>
+      <c r="P9" s="1">
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>81</v>
@@ -3469,8 +3471,8 @@
       <c r="R9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>39</v>
+      <c r="S9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,17 +3497,17 @@
       <c r="G10" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>43</v>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>39</v>
+      <c r="L10" s="1">
+        <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>502</v>
@@ -3516,8 +3518,8 @@
       <c r="O10" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>39</v>
+      <c r="P10" s="1">
+        <v>0</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>81</v>
@@ -3525,8 +3527,8 @@
       <c r="R10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>43</v>
+      <c r="S10" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3551,20 +3553,20 @@
       <c r="G11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>43</v>
+      <c r="H11" s="1">
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>43</v>
+      <c r="J11" s="1">
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>43</v>
+      <c r="L11" s="1">
+        <v>1</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>296</v>
@@ -3572,8 +3574,8 @@
       <c r="O11" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>43</v>
+      <c r="P11" s="1">
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>81</v>
@@ -3581,8 +3583,8 @@
       <c r="R11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>43</v>
+      <c r="S11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3607,20 +3609,20 @@
       <c r="G12" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
+      <c r="H12" s="1">
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>43</v>
+      <c r="J12" s="1">
+        <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>43</v>
+      <c r="L12" s="1">
+        <v>1</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>277</v>
@@ -3628,8 +3630,8 @@
       <c r="O12" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>39</v>
+      <c r="P12" s="1">
+        <v>0</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>81</v>
@@ -3637,8 +3639,8 @@
       <c r="R12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>43</v>
+      <c r="S12" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3663,17 +3665,17 @@
       <c r="G13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>43</v>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>43</v>
+      <c r="L13" s="1">
+        <v>1</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>79</v>
@@ -3681,8 +3683,8 @@
       <c r="O13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>39</v>
+      <c r="P13" s="1">
+        <v>0</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>81</v>
@@ -3690,8 +3692,8 @@
       <c r="R13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>43</v>
+      <c r="S13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3716,20 +3718,20 @@
       <c r="G14" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
+      <c r="H14" s="1">
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>43</v>
+      <c r="J14" s="1">
+        <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>43</v>
+      <c r="L14" s="1">
+        <v>1</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>96</v>
@@ -3737,8 +3739,8 @@
       <c r="O14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>39</v>
+      <c r="P14" s="1">
+        <v>0</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>81</v>
@@ -3746,8 +3748,8 @@
       <c r="R14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>43</v>
+      <c r="S14" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3772,20 +3774,20 @@
       <c r="G15" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
+      <c r="H15" s="1">
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
+      <c r="J15" s="1">
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>39</v>
+      <c r="L15" s="1">
+        <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>530</v>
@@ -3796,8 +3798,8 @@
       <c r="O15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>39</v>
+      <c r="P15" s="1">
+        <v>0</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>81</v>
@@ -3805,8 +3807,8 @@
       <c r="R15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>43</v>
+      <c r="S15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,17 +3833,17 @@
       <c r="G16" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>43</v>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>43</v>
+      <c r="L16" s="1">
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>96</v>
@@ -3849,8 +3851,8 @@
       <c r="O16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>39</v>
+      <c r="P16" s="1">
+        <v>0</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>81</v>
@@ -3858,8 +3860,8 @@
       <c r="R16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S16" s="1" t="s">
-        <v>43</v>
+      <c r="S16" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,20 +3886,20 @@
       <c r="G17" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>43</v>
+      <c r="H17" s="1">
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
+      <c r="J17" s="1">
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>43</v>
+      <c r="L17" s="1">
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>96</v>
@@ -3905,8 +3907,8 @@
       <c r="O17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>39</v>
+      <c r="P17" s="1">
+        <v>0</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>54</v>
@@ -3914,8 +3916,8 @@
       <c r="R17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>43</v>
+      <c r="S17" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3940,20 +3942,20 @@
       <c r="G18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>43</v>
+      <c r="H18" s="1">
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>43</v>
+      <c r="J18" s="1">
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>43</v>
+      <c r="L18" s="1">
+        <v>1</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>78</v>
@@ -3961,8 +3963,8 @@
       <c r="O18" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>39</v>
+      <c r="P18" s="1">
+        <v>0</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>81</v>
@@ -3970,8 +3972,8 @@
       <c r="R18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>43</v>
+      <c r="S18" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,20 +3998,20 @@
       <c r="G19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>43</v>
+      <c r="H19" s="1">
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
+      <c r="J19" s="1">
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>39</v>
+      <c r="L19" s="1">
+        <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>51</v>
@@ -4020,8 +4022,8 @@
       <c r="O19" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>43</v>
+      <c r="P19" s="1">
+        <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>89</v>
@@ -4029,8 +4031,8 @@
       <c r="R19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>43</v>
+      <c r="S19" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4055,17 +4057,17 @@
       <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>43</v>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>39</v>
+      <c r="L20" s="1">
+        <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>51</v>
@@ -4076,8 +4078,8 @@
       <c r="O20" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>39</v>
+      <c r="P20" s="1">
+        <v>0</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>81</v>
@@ -4085,8 +4087,8 @@
       <c r="R20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>43</v>
+      <c r="S20" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4111,20 +4113,20 @@
       <c r="G21" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>43</v>
+      <c r="H21" s="1">
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>43</v>
+      <c r="J21" s="1">
+        <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>39</v>
+      <c r="L21" s="1">
+        <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>568</v>
@@ -4135,8 +4137,8 @@
       <c r="O21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>43</v>
+      <c r="P21" s="1">
+        <v>1</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>89</v>
@@ -4144,8 +4146,8 @@
       <c r="R21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>43</v>
+      <c r="S21" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4170,17 +4172,17 @@
       <c r="G22" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>43</v>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>39</v>
+      <c r="L22" s="1">
+        <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>266</v>
@@ -4191,8 +4193,8 @@
       <c r="O22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>39</v>
+      <c r="P22" s="1">
+        <v>0</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>81</v>
@@ -4200,8 +4202,8 @@
       <c r="R22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>39</v>
+      <c r="S22" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,17 +4228,17 @@
       <c r="G23" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>43</v>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>43</v>
+      <c r="L23" s="1">
+        <v>1</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>78</v>
@@ -4244,8 +4246,8 @@
       <c r="O23" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>39</v>
+      <c r="P23" s="1">
+        <v>0</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>81</v>
@@ -4253,8 +4255,8 @@
       <c r="R23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>43</v>
+      <c r="S23" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4279,17 +4281,17 @@
       <c r="G24" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>39</v>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>39</v>
+      <c r="L24" s="1">
+        <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>266</v>
@@ -4300,8 +4302,8 @@
       <c r="O24" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>43</v>
+      <c r="P24" s="1">
+        <v>1</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>81</v>
@@ -4309,8 +4311,8 @@
       <c r="R24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>43</v>
+      <c r="S24" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4335,17 +4337,17 @@
       <c r="G25" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>39</v>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>43</v>
+      <c r="L25" s="1">
+        <v>1</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>598</v>
@@ -4353,8 +4355,8 @@
       <c r="O25" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>43</v>
+      <c r="P25" s="1">
+        <v>1</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>81</v>
@@ -4362,8 +4364,8 @@
       <c r="R25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>43</v>
+      <c r="S25" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4388,20 +4390,20 @@
       <c r="G26" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>43</v>
+      <c r="H26" s="1">
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>43</v>
+      <c r="J26" s="1">
+        <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>43</v>
+      <c r="L26" s="1">
+        <v>1</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>96</v>
@@ -4409,8 +4411,8 @@
       <c r="O26" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>39</v>
+      <c r="P26" s="1">
+        <v>0</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>89</v>
@@ -4418,8 +4420,8 @@
       <c r="R26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>43</v>
+      <c r="S26" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,17 +4446,17 @@
       <c r="G27" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>43</v>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="L27" s="1" t="s">
-        <v>39</v>
+      <c r="L27" s="1">
+        <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>614</v>
@@ -4465,8 +4467,8 @@
       <c r="O27" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>39</v>
+      <c r="P27" s="1">
+        <v>0</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>89</v>
@@ -4474,8 +4476,8 @@
       <c r="R27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>39</v>
+      <c r="S27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4500,20 +4502,20 @@
       <c r="G28" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>43</v>
+      <c r="H28" s="1">
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>43</v>
+      <c r="J28" s="1">
+        <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>43</v>
+      <c r="L28" s="1">
+        <v>1</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>121</v>
@@ -4521,8 +4523,8 @@
       <c r="O28" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>39</v>
+      <c r="P28" s="1">
+        <v>0</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>81</v>
@@ -4530,8 +4532,8 @@
       <c r="R28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>43</v>
+      <c r="S28" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4556,20 +4558,20 @@
       <c r="G29" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>43</v>
+      <c r="H29" s="1">
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>43</v>
+      <c r="J29" s="1">
+        <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>39</v>
+      <c r="L29" s="1">
+        <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>630</v>
@@ -4580,8 +4582,8 @@
       <c r="O29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>43</v>
+      <c r="P29" s="1">
+        <v>1</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>81</v>
@@ -4589,8 +4591,8 @@
       <c r="R29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>43</v>
+      <c r="S29" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4615,17 +4617,17 @@
       <c r="G30" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>43</v>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>43</v>
+      <c r="L30" s="1">
+        <v>1</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>96</v>
@@ -4633,8 +4635,8 @@
       <c r="O30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>39</v>
+      <c r="P30" s="1">
+        <v>0</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>81</v>
@@ -4642,8 +4644,8 @@
       <c r="R30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>43</v>
+      <c r="S30" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,17 +4670,17 @@
       <c r="G31" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>43</v>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>43</v>
+      <c r="L31" s="1">
+        <v>1</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>79</v>
@@ -4686,8 +4688,8 @@
       <c r="O31" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>39</v>
+      <c r="P31" s="1">
+        <v>0</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>89</v>
@@ -4695,11 +4697,15 @@
       <c r="R31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4711,7 +4717,7 @@
   </sheetPr>
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
@@ -12098,14 +12104,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC38"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12181,7 +12187,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -12206,20 +12212,20 @@
       <c r="H2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
+      <c r="I2" s="1">
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
+      <c r="K2" s="1">
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>39</v>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>76</v>
@@ -12230,8 +12236,8 @@
       <c r="P2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
+      <c r="Q2" s="1">
+        <v>1</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>81</v>
@@ -12239,8 +12245,8 @@
       <c r="S2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>43</v>
+      <c r="T2" s="1">
+        <v>1</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>43</v>
@@ -12249,7 +12255,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -12274,20 +12280,20 @@
       <c r="H3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>43</v>
+      <c r="I3" s="1">
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>43</v>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>96</v>
@@ -12295,8 +12301,8 @@
       <c r="P3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>39</v>
+      <c r="Q3" s="1">
+        <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>81</v>
@@ -12304,13 +12310,13 @@
       <c r="S3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>43</v>
+      <c r="T3" s="1">
+        <v>1</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -12335,20 +12341,20 @@
       <c r="H4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>43</v>
+      <c r="I4" s="1">
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>43</v>
+      <c r="K4" s="1">
+        <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
+      <c r="M4" s="1">
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>105</v>
@@ -12359,8 +12365,8 @@
       <c r="P4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>39</v>
+      <c r="Q4" s="1">
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>81</v>
@@ -12368,13 +12374,13 @@
       <c r="S4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>43</v>
+      <c r="T4" s="1">
+        <v>1</v>
       </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -12399,20 +12405,20 @@
       <c r="H5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
+      <c r="I5" s="1">
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>43</v>
+      <c r="K5" s="1">
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>39</v>
+      <c r="M5" s="1">
+        <v>0</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>120</v>
@@ -12423,8 +12429,8 @@
       <c r="P5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>39</v>
+      <c r="Q5" s="1">
+        <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>81</v>
@@ -12432,13 +12438,13 @@
       <c r="S5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>43</v>
+      <c r="T5" s="1">
+        <v>1</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>122</v>
       </c>
@@ -12463,20 +12469,20 @@
       <c r="H6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>43</v>
+      <c r="I6" s="1">
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>43</v>
+      <c r="K6" s="1">
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>43</v>
+      <c r="M6" s="1">
+        <v>1</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>96</v>
@@ -12484,8 +12490,8 @@
       <c r="P6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>39</v>
+      <c r="Q6" s="1">
+        <v>0</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>81</v>
@@ -12493,13 +12499,13 @@
       <c r="S6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>43</v>
+      <c r="T6" s="1">
+        <v>1</v>
       </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
@@ -12524,17 +12530,17 @@
       <c r="H7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>43</v>
+      <c r="M7" s="1">
+        <v>1</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>96</v>
@@ -12542,8 +12548,8 @@
       <c r="P7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>39</v>
+      <c r="Q7" s="1">
+        <v>0</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>81</v>
@@ -12551,13 +12557,13 @@
       <c r="S7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>43</v>
+      <c r="T7" s="1">
+        <v>1</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>147</v>
       </c>
@@ -12582,20 +12588,20 @@
       <c r="H8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>43</v>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>43</v>
+      <c r="K8" s="1">
+        <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>39</v>
+      <c r="M8" s="1">
+        <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>158</v>
@@ -12606,8 +12612,8 @@
       <c r="P8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>39</v>
+      <c r="Q8" s="1">
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>81</v>
@@ -12615,13 +12621,13 @@
       <c r="S8" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>39</v>
+      <c r="T8" s="1">
+        <v>0</v>
       </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>163</v>
       </c>
@@ -12646,17 +12652,17 @@
       <c r="H9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>43</v>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>43</v>
+      <c r="M9" s="1">
+        <v>1</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>170</v>
@@ -12664,8 +12670,8 @@
       <c r="P9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>39</v>
+      <c r="Q9" s="1">
+        <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>81</v>
@@ -12673,8 +12679,8 @@
       <c r="S9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>43</v>
+      <c r="T9" s="1">
+        <v>1</v>
       </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -12704,20 +12710,20 @@
       <c r="H10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
+      <c r="I10" s="1">
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>39</v>
+      <c r="K10" s="1">
+        <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>43</v>
+      <c r="M10" s="1">
+        <v>1</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>121</v>
@@ -12731,15 +12737,15 @@
       <c r="S10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>43</v>
+      <c r="T10" s="1">
+        <v>1</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>186</v>
       </c>
@@ -12764,20 +12770,20 @@
       <c r="H11" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>43</v>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>39</v>
+      <c r="K11" s="1">
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>39</v>
+      <c r="M11" s="1">
+        <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>191</v>
@@ -12788,8 +12794,8 @@
       <c r="P11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>39</v>
+      <c r="Q11" s="1">
+        <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>81</v>
@@ -12797,13 +12803,13 @@
       <c r="S11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>43</v>
+      <c r="T11" s="1">
+        <v>1</v>
       </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>195</v>
       </c>
@@ -12828,20 +12834,20 @@
       <c r="H12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>43</v>
+      <c r="I12" s="1">
+        <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
+      <c r="K12" s="1">
+        <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>43</v>
+      <c r="M12" s="1">
+        <v>1</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>79</v>
@@ -12849,8 +12855,8 @@
       <c r="P12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>39</v>
+      <c r="Q12" s="1">
+        <v>0</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>81</v>
@@ -12858,13 +12864,13 @@
       <c r="S12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>43</v>
+      <c r="T12" s="1">
+        <v>1</v>
       </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>208</v>
       </c>
@@ -12889,17 +12895,17 @@
       <c r="H13" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>43</v>
+      <c r="M13" s="1">
+        <v>1</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>96</v>
@@ -12907,8 +12913,8 @@
       <c r="P13" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>39</v>
+      <c r="Q13" s="1">
+        <v>0</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>81</v>
@@ -12916,13 +12922,13 @@
       <c r="S13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>43</v>
+      <c r="T13" s="1">
+        <v>1</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>223</v>
       </c>
@@ -12947,20 +12953,20 @@
       <c r="H14" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>43</v>
+      <c r="I14" s="1">
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
+      <c r="K14" s="1">
+        <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>43</v>
+      <c r="M14" s="1">
+        <v>1</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>96</v>
@@ -12968,8 +12974,8 @@
       <c r="P14" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>39</v>
+      <c r="Q14" s="1">
+        <v>0</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>81</v>
@@ -12977,13 +12983,13 @@
       <c r="S14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>43</v>
+      <c r="T14" s="1">
+        <v>1</v>
       </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>234</v>
       </c>
@@ -13008,20 +13014,20 @@
       <c r="H15" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>43</v>
+      <c r="I15" s="1">
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>39</v>
+      <c r="K15" s="1">
+        <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>43</v>
+      <c r="M15" s="1">
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>84</v>
@@ -13029,8 +13035,8 @@
       <c r="P15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>39</v>
+      <c r="Q15" s="1">
+        <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>89</v>
@@ -13038,13 +13044,13 @@
       <c r="S15" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>43</v>
+      <c r="T15" s="1">
+        <v>1</v>
       </c>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>244</v>
       </c>
@@ -13069,20 +13075,20 @@
       <c r="H16" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>43</v>
+      <c r="I16" s="1">
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>43</v>
+      <c r="K16" s="1">
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>39</v>
+      <c r="M16" s="1">
+        <v>0</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>256</v>
@@ -13093,8 +13099,8 @@
       <c r="P16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>39</v>
+      <c r="Q16" s="1">
+        <v>0</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>81</v>
@@ -13102,15 +13108,15 @@
       <c r="S16" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>43</v>
+      <c r="T16" s="1">
+        <v>1</v>
       </c>
       <c r="U16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="V16" s="3"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>260</v>
       </c>
@@ -13135,20 +13141,20 @@
       <c r="H17" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>43</v>
+      <c r="I17" s="1">
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>39</v>
+      <c r="K17" s="1">
+        <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>39</v>
+      <c r="M17" s="1">
+        <v>0</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>266</v>
@@ -13159,8 +13165,8 @@
       <c r="P17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>39</v>
+      <c r="Q17" s="1">
+        <v>0</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>81</v>
@@ -13168,8 +13174,8 @@
       <c r="S17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>43</v>
+      <c r="T17" s="1">
+        <v>1</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>43</v>
@@ -13178,7 +13184,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>271</v>
       </c>
@@ -13203,20 +13209,20 @@
       <c r="H18" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>43</v>
+      <c r="I18" s="1">
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>43</v>
+      <c r="K18" s="1">
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>39</v>
+      <c r="M18" s="1">
+        <v>0</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>266</v>
@@ -13227,8 +13233,8 @@
       <c r="P18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>39</v>
+      <c r="Q18" s="1">
+        <v>0</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>54</v>
@@ -13236,13 +13242,13 @@
       <c r="S18" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>43</v>
+      <c r="T18" s="1">
+        <v>1</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>281</v>
       </c>
@@ -13267,20 +13273,20 @@
       <c r="H19" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>43</v>
+      <c r="I19" s="1">
+        <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
+      <c r="K19" s="1">
+        <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>43</v>
+      <c r="M19" s="1">
+        <v>1</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>159</v>
@@ -13288,8 +13294,8 @@
       <c r="P19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>39</v>
+      <c r="Q19" s="1">
+        <v>0</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>89</v>
@@ -13297,13 +13303,13 @@
       <c r="S19" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>43</v>
+      <c r="T19" s="1">
+        <v>1</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>292</v>
       </c>
@@ -13328,20 +13334,20 @@
       <c r="H20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>43</v>
+      <c r="I20" s="1">
+        <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>39</v>
+      <c r="K20" s="1">
+        <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>39</v>
+      <c r="M20" s="1">
+        <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>120</v>
@@ -13352,8 +13358,8 @@
       <c r="P20" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>39</v>
+      <c r="Q20" s="1">
+        <v>0</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>81</v>
@@ -13361,13 +13367,13 @@
       <c r="S20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>43</v>
+      <c r="T20" s="1">
+        <v>1</v>
       </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>302</v>
       </c>
@@ -13392,20 +13398,20 @@
       <c r="H21" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>43</v>
+      <c r="I21" s="1">
+        <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>39</v>
+      <c r="K21" s="1">
+        <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>39</v>
+      <c r="M21" s="1">
+        <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>311</v>
@@ -13416,8 +13422,8 @@
       <c r="P21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>39</v>
+      <c r="Q21" s="1">
+        <v>0</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>54</v>
@@ -13425,13 +13431,13 @@
       <c r="S21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>43</v>
+      <c r="T21" s="1">
+        <v>1</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>316</v>
       </c>
@@ -13456,17 +13462,17 @@
       <c r="H22" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>43</v>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>43</v>
+      <c r="M22" s="1">
+        <v>1</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>79</v>
@@ -13474,8 +13480,8 @@
       <c r="P22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>39</v>
+      <c r="Q22" s="1">
+        <v>0</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>89</v>
@@ -13483,13 +13489,13 @@
       <c r="S22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>43</v>
+      <c r="T22" s="1">
+        <v>1</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>326</v>
       </c>
@@ -13514,20 +13520,20 @@
       <c r="H23" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>43</v>
+      <c r="I23" s="1">
+        <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>43</v>
+      <c r="K23" s="1">
+        <v>1</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>43</v>
+      <c r="M23" s="1">
+        <v>1</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>84</v>
@@ -13535,8 +13541,8 @@
       <c r="P23" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>43</v>
+      <c r="Q23" s="1">
+        <v>1</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>81</v>
@@ -13544,13 +13550,13 @@
       <c r="S23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>43</v>
+      <c r="T23" s="1">
+        <v>1</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>339</v>
       </c>
@@ -13575,20 +13581,20 @@
       <c r="H24" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>43</v>
+      <c r="I24" s="1">
+        <v>1</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
+      <c r="K24" s="1">
+        <v>1</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>43</v>
+      <c r="M24" s="1">
+        <v>1</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>96</v>
@@ -13596,8 +13602,8 @@
       <c r="P24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>39</v>
+      <c r="Q24" s="1">
+        <v>0</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>54</v>
@@ -13605,13 +13611,13 @@
       <c r="S24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>43</v>
+      <c r="T24" s="1">
+        <v>1</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>726</v>
       </c>
@@ -13636,20 +13642,20 @@
       <c r="H25" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>43</v>
+      <c r="I25" s="1">
+        <v>1</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="K25" s="3" t="s">
-        <v>43</v>
+      <c r="K25" s="1">
+        <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>43</v>
+      <c r="M25" s="1">
+        <v>1</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
@@ -13658,8 +13664,8 @@
       <c r="P25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>39</v>
+      <c r="Q25" s="1">
+        <v>0</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>81</v>
@@ -13667,8 +13673,8 @@
       <c r="S25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T25" s="3" t="s">
-        <v>43</v>
+      <c r="T25" s="1">
+        <v>1</v>
       </c>
       <c r="U25" s="3" t="s">
         <v>39</v>
@@ -13681,7 +13687,7 @@
       <c r="AB25" s="3"/>
       <c r="AC25" s="3"/>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>731</v>
       </c>
@@ -13706,20 +13712,20 @@
       <c r="H26" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>43</v>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>43</v>
+      <c r="K26" s="1">
+        <v>1</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>43</v>
+      <c r="M26" s="1">
+        <v>1</v>
       </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3" t="s">
@@ -13728,8 +13734,8 @@
       <c r="P26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>39</v>
+      <c r="Q26" s="1">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>81</v>
@@ -13737,8 +13743,8 @@
       <c r="S26" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>43</v>
+      <c r="T26" s="1">
+        <v>1</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>39</v>
@@ -13751,7 +13757,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>735</v>
       </c>
@@ -13776,18 +13782,18 @@
       <c r="H27" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>39</v>
+      <c r="I27" s="1">
+        <v>0</v>
       </c>
       <c r="J27" s="3"/>
-      <c r="K27" s="3" t="s">
-        <v>43</v>
+      <c r="K27" s="1">
+        <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>43</v>
+      <c r="M27" s="1">
+        <v>1</v>
       </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
@@ -13796,8 +13802,8 @@
       <c r="P27" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>39</v>
+      <c r="Q27" s="1">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>81</v>
@@ -13805,8 +13811,8 @@
       <c r="S27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>43</v>
+      <c r="T27" s="1">
+        <v>1</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>43</v>
@@ -13821,7 +13827,7 @@
       <c r="AB27" s="3"/>
       <c r="AC27" s="3"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>736</v>
       </c>
@@ -13846,20 +13852,20 @@
       <c r="H28" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>43</v>
+      <c r="I28" s="1">
+        <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>43</v>
+      <c r="K28" s="1">
+        <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>43</v>
+      <c r="M28" s="1">
+        <v>1</v>
       </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
@@ -13868,8 +13874,8 @@
       <c r="P28" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>39</v>
+      <c r="Q28" s="1">
+        <v>0</v>
       </c>
       <c r="R28" s="3" t="s">
         <v>89</v>
@@ -13877,8 +13883,8 @@
       <c r="S28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T28" s="3" t="s">
-        <v>43</v>
+      <c r="T28" s="1">
+        <v>1</v>
       </c>
       <c r="U28" s="3" t="s">
         <v>43</v>
@@ -13893,7 +13899,7 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="3"/>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>740</v>
       </c>
@@ -13918,20 +13924,20 @@
       <c r="H29" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>43</v>
+      <c r="I29" s="1">
+        <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>43</v>
+      <c r="K29" s="1">
+        <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>43</v>
+      <c r="M29" s="1">
+        <v>1</v>
       </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3" t="s">
@@ -13940,8 +13946,8 @@
       <c r="P29" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>39</v>
+      <c r="Q29" s="1">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>81</v>
@@ -13949,8 +13955,8 @@
       <c r="S29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>43</v>
+      <c r="T29" s="1">
+        <v>1</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>43</v>
@@ -13965,7 +13971,7 @@
       <c r="AB29" s="3"/>
       <c r="AC29" s="3"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>743</v>
       </c>
@@ -13990,20 +13996,20 @@
       <c r="H30" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>43</v>
+      <c r="I30" s="1">
+        <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>43</v>
+      <c r="K30" s="1">
+        <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="M30" s="3" t="s">
-        <v>43</v>
+      <c r="M30" s="1">
+        <v>1</v>
       </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3" t="s">
@@ -14012,8 +14018,8 @@
       <c r="P30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q30" s="3" t="s">
-        <v>39</v>
+      <c r="Q30" s="1">
+        <v>0</v>
       </c>
       <c r="R30" s="3" t="s">
         <v>81</v>
@@ -14021,8 +14027,8 @@
       <c r="S30" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T30" s="3" t="s">
-        <v>43</v>
+      <c r="T30" s="1">
+        <v>1</v>
       </c>
       <c r="U30" s="3" t="s">
         <v>39</v>
@@ -14035,7 +14041,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>746</v>
       </c>
@@ -14060,20 +14066,20 @@
       <c r="H31" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>43</v>
+      <c r="I31" s="1">
+        <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="K31" s="3" t="s">
-        <v>43</v>
+      <c r="K31" s="1">
+        <v>1</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="M31" s="3" t="s">
-        <v>43</v>
+      <c r="M31" s="1">
+        <v>1</v>
       </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
@@ -14082,8 +14088,8 @@
       <c r="P31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q31" s="3" t="s">
-        <v>39</v>
+      <c r="Q31" s="1">
+        <v>0</v>
       </c>
       <c r="R31" s="3" t="s">
         <v>81</v>
@@ -14091,8 +14097,8 @@
       <c r="S31" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T31" s="3" t="s">
-        <v>43</v>
+      <c r="T31" s="1">
+        <v>1</v>
       </c>
       <c r="U31" s="3" t="s">
         <v>43</v>
@@ -14107,7 +14113,7 @@
       <c r="AB31" s="3"/>
       <c r="AC31" s="3"/>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>751</v>
       </c>
@@ -14132,18 +14138,18 @@
       <c r="H32" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>39</v>
+      <c r="I32" s="1">
+        <v>0</v>
       </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
-        <v>43</v>
+      <c r="K32" s="1">
+        <v>1</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>43</v>
+      <c r="M32" s="1">
+        <v>1</v>
       </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3" t="s">
@@ -14152,8 +14158,8 @@
       <c r="P32" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>39</v>
+      <c r="Q32" s="1">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>81</v>
@@ -14161,8 +14167,8 @@
       <c r="S32" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>39</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>39</v>
@@ -14175,7 +14181,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3"/>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>754</v>
       </c>
@@ -14200,20 +14206,20 @@
       <c r="H33" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>43</v>
+      <c r="I33" s="1">
+        <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>43</v>
+      <c r="K33" s="1">
+        <v>1</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>43</v>
+      <c r="M33" s="1">
+        <v>1</v>
       </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3" t="s">
@@ -14222,8 +14228,8 @@
       <c r="P33" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>39</v>
+      <c r="Q33" s="1">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>81</v>
@@ -14231,8 +14237,8 @@
       <c r="S33" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>43</v>
+      <c r="T33" s="1">
+        <v>1</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>39</v>
@@ -14245,7 +14251,7 @@
       <c r="AB33" s="3"/>
       <c r="AC33" s="3"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>759</v>
       </c>
@@ -14270,20 +14276,20 @@
       <c r="H34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>43</v>
+      <c r="I34" s="1">
+        <v>1</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>43</v>
+      <c r="K34" s="1">
+        <v>1</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="M34" s="3" t="s">
-        <v>43</v>
+      <c r="M34" s="1">
+        <v>1</v>
       </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3" t="s">
@@ -14292,8 +14298,8 @@
       <c r="P34" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>39</v>
+      <c r="Q34" s="1">
+        <v>0</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>81</v>
@@ -14301,8 +14307,8 @@
       <c r="S34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T34" s="3" t="s">
-        <v>43</v>
+      <c r="T34" s="1">
+        <v>1</v>
       </c>
       <c r="U34" s="3" t="s">
         <v>43</v>
@@ -14317,7 +14323,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>760</v>
       </c>
@@ -14342,18 +14348,18 @@
       <c r="H35" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>43</v>
+      <c r="I35" s="1">
+        <v>1</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>43</v>
+      <c r="K35" s="1">
+        <v>1</v>
       </c>
       <c r="L35" s="3"/>
-      <c r="M35" s="3" t="s">
-        <v>43</v>
+      <c r="M35" s="1">
+        <v>1</v>
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3" t="s">
@@ -14362,8 +14368,8 @@
       <c r="P35" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>39</v>
+      <c r="Q35" s="1">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>81</v>
@@ -14371,8 +14377,8 @@
       <c r="S35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>43</v>
+      <c r="T35" s="1">
+        <v>1</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>43</v>
@@ -14387,7 +14393,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
     </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>764</v>
       </c>
@@ -14412,18 +14418,18 @@
       <c r="H36" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>39</v>
+      <c r="I36" s="1">
+        <v>0</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
-        <v>43</v>
+      <c r="K36" s="1">
+        <v>1</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>43</v>
+      <c r="M36" s="1">
+        <v>1</v>
       </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3" t="s">
@@ -14432,8 +14438,8 @@
       <c r="P36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q36" s="3" t="s">
-        <v>39</v>
+      <c r="Q36" s="1">
+        <v>0</v>
       </c>
       <c r="R36" s="3" t="s">
         <v>81</v>
@@ -14441,8 +14447,8 @@
       <c r="S36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T36" s="3" t="s">
-        <v>43</v>
+      <c r="T36" s="1">
+        <v>1</v>
       </c>
       <c r="U36" s="3" t="s">
         <v>43</v>
@@ -14457,7 +14463,7 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>767</v>
       </c>
@@ -14482,18 +14488,18 @@
       <c r="H37" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>39</v>
+      <c r="I37" s="1">
+        <v>0</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
-        <v>43</v>
+      <c r="K37" s="1">
+        <v>1</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>769</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>43</v>
+      <c r="M37" s="1">
+        <v>1</v>
       </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3" t="s">
@@ -14502,8 +14508,8 @@
       <c r="P37" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q37" s="3" t="s">
-        <v>39</v>
+      <c r="Q37" s="1">
+        <v>0</v>
       </c>
       <c r="R37" s="3" t="s">
         <v>81</v>
@@ -14511,8 +14517,8 @@
       <c r="S37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T37" s="3" t="s">
-        <v>43</v>
+      <c r="T37" s="1">
+        <v>1</v>
       </c>
       <c r="U37" s="3" t="s">
         <v>43</v>
@@ -14527,10 +14533,12 @@
       <c r="AB37" s="3"/>
       <c r="AC37" s="3"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:V37">
+    <filterColumn colId="16">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/PESQUISA.xlsx
+++ b/PESQUISA.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beatriz\Documents\GitHub\Projeto_3_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/Projeto_3_CD/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16176" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eng-insper" sheetId="4" r:id="rId1"/>
@@ -20,8 +20,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">admecono!$A$1:$U$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eng-insper'!$A$1:$S$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">engenharia!$A$1:$T$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eng-insper'!$A$1:$S$31</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -2499,7 +2499,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2897,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2908,12 +2908,12 @@
       <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="21.44140625" customWidth="1"/>
+    <col min="1" max="25" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>429</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>440</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>447</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>456</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>462</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>474</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>485</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>489</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>491</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>498</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>503</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>508</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>511</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>516</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>522</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>528</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>534</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>541</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>549</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>555</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>563</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>572</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>577</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>584</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>591</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>599</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>609</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>615</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>626</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>630</v>
       </c>
@@ -4649,33 +4649,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J32" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S31"/>
+  <autoFilter ref="A1:S31" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="26" width="21.44140625" customWidth="1"/>
+    <col min="1" max="26" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>93</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>131</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>163</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>178</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>199</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>212</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>233</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>257</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>268</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>283</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>291</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>303</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>316</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>327</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>332</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>341</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>346</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>352</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>361</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>366</v>
       </c>
@@ -6221,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>376</v>
       </c>
@@ -6283,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>382</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>393</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>402</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>412</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>420</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>428</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>438</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>446</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>455</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>465</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>477</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>486</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>490</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>495</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>501</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>507</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>510</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>517</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>523</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>529</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>533</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>540</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>546</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>551</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>558</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>564</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>570</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>573</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>578</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>585</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>590</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>598</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>607</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>613</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>616</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>622</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>627</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>631</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>637</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>641</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>645</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>648</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>650</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>653</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>655</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>659</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>663</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>664</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>666</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>669</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>670</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>673</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>676</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>679</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>681</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>685</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>687</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>689</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>692</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>669</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>694</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>697</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>700</v>
       </c>
@@ -9925,7 +9925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>703</v>
       </c>
@@ -9982,13 +9982,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T91"/>
+  <autoFilter ref="A1:T91" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -9999,12 +9999,12 @@
       <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="21.44140625" customWidth="1"/>
+    <col min="1" max="25" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10063,7 +10063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -10155,7 +10155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>59</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>91</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>96</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>100</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>105</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>117</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>136</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>138</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>142</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>148</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>155</v>
       </c>
@@ -10421,7 +10421,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>160</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>162</v>
       </c>
@@ -10443,7 +10443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>165</v>
       </c>
@@ -10454,7 +10454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>169</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>185</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>190</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>191</v>
       </c>
@@ -10557,7 +10557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>196</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>197</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>200</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>218</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>221</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>225</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>232</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>237</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>243</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>259</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>263</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>265</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>270</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>272</v>
       </c>
@@ -10877,7 +10877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>284</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>288</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>301</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>306</v>
       </c>
@@ -11017,7 +11017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>317</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>265</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>338</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>340</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>347</v>
       </c>
@@ -11213,7 +11213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>355</v>
       </c>
@@ -11224,7 +11224,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>359</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>360</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>365</v>
       </c>
@@ -11353,7 +11353,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>372</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>380</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>387</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>392</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>401</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>410</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>419</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>433</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>439</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>448</v>
       </c>
@@ -11919,7 +11919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>457</v>
       </c>
@@ -11930,7 +11930,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>460</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>473</v>
       </c>
@@ -12051,7 +12051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -12062,12 +12062,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="21.44140625" customWidth="1"/>
+    <col min="1" max="25" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -12255,7 +12255,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -12316,7 +12316,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>108</v>
       </c>
@@ -12377,7 +12377,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>120</v>
       </c>
@@ -12435,7 +12435,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>82</v>
       </c>
@@ -12493,7 +12493,7 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>145</v>
       </c>
@@ -12554,7 +12554,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
@@ -12612,7 +12612,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>170</v>
       </c>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>184</v>
       </c>
@@ -12730,7 +12730,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>193</v>
       </c>
@@ -12788,7 +12788,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>205</v>
       </c>
@@ -12846,7 +12846,7 @@
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>220</v>
       </c>
@@ -12904,7 +12904,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>231</v>
       </c>
@@ -12962,7 +12962,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -13025,7 +13025,7 @@
       </c>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>256</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>266</v>
       </c>
@@ -13151,7 +13151,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>275</v>
       </c>
@@ -13209,7 +13209,7 @@
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>286</v>
       </c>
@@ -13270,7 +13270,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>296</v>
       </c>
@@ -13331,7 +13331,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>309</v>
       </c>
@@ -13389,7 +13389,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>319</v>
       </c>
@@ -13447,7 +13447,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>331</v>
       </c>
@@ -13505,7 +13505,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>717</v>
       </c>
@@ -13572,7 +13572,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>721</v>
       </c>
@@ -13639,7 +13639,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>724</v>
       </c>
@@ -13708,7 +13708,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>725</v>
       </c>
@@ -13777,7 +13777,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>728</v>
       </c>
@@ -13846,7 +13846,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>730</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>732</v>
       </c>
@@ -13982,7 +13982,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>736</v>
       </c>
@@ -14049,7 +14049,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>739</v>
       </c>
@@ -14116,7 +14116,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>743</v>
       </c>
@@ -14185,7 +14185,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>744</v>
       </c>
@@ -14252,7 +14252,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>747</v>
       </c>
@@ -14321,7 +14321,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>750</v>
       </c>
@@ -14397,7 +14397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -14408,17 +14408,17 @@
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="8" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>814</v>
       </c>
@@ -14435,7 +14435,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>813</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>815</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>816</v>
       </c>
